--- a/model/Outputs/8. Fixed RE/With PV/Output Files/30/Output_0_27.xlsx
+++ b/model/Outputs/8. Fixed RE/With PV/Output Files/30/Output_0_27.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>430.3047365861568</v>
+        <v>1092789.450322581</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>430.3047365861568</v>
+        <v>1092789.450322581</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>98333.88625764388</v>
+        <v>6866397.935929358</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>98333.88625764388</v>
+        <v>6866397.935929358</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1646729455.933804</v>
+        <v>59358165.61854963</v>
       </c>
     </row>
   </sheetData>
@@ -712,10 +712,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>6.982233028348955</v>
+        <v>6.982233028349953</v>
       </c>
       <c r="S2" t="n">
-        <v>406.371246055701</v>
+        <v>406.3712460557003</v>
       </c>
       <c r="T2" t="n">
         <v>569.6790825537603</v>
@@ -743,25 +743,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>384.5565566463266</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>361.0999124455193</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>347.9376868977026</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>230.5978489974374</v>
       </c>
       <c r="F3" t="n">
         <v>339.6362423378769</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>323.662110682525</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>312.1045333535693</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -803,16 +803,16 @@
         <v>400.0736870501537</v>
       </c>
       <c r="V3" t="n">
-        <v>187.8896114693686</v>
+        <v>414.5106671915202</v>
       </c>
       <c r="W3" t="n">
-        <v>32.37314290982852</v>
+        <v>432.3731429098285</v>
       </c>
       <c r="X3" t="n">
         <v>419.8627394453875</v>
       </c>
       <c r="Y3" t="n">
-        <v>399.3913927661343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -986,13 +986,13 @@
         <v>361.0999124455193</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>60.95287351342837</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>60.95287351342837</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1217,28 +1217,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>384.5565566463266</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>361.0999124455193</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>347.9376868977026</v>
       </c>
       <c r="E9" t="n">
-        <v>342.6720972219126</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>339.6362423378769</v>
       </c>
       <c r="G9" t="n">
-        <v>323.662110682525</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>119.0354133696946</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>418.2912050771884</v>
       </c>
       <c r="S9" t="n">
-        <v>335.0214745386911</v>
+        <v>427.97673816528</v>
       </c>
       <c r="T9" t="n">
         <v>396.9842838494889</v>
@@ -1277,13 +1277,13 @@
         <v>400.0736870501537</v>
       </c>
       <c r="V9" t="n">
-        <v>14.51066719152016</v>
+        <v>414.5106671915202</v>
       </c>
       <c r="W9" t="n">
-        <v>32.37314290982852</v>
+        <v>432.3731429098285</v>
       </c>
       <c r="X9" t="n">
-        <v>19.86273944538755</v>
+        <v>419.8627394453875</v>
       </c>
       <c r="Y9" t="n">
         <v>399.3913927661343</v>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>6.982233028349953</v>
+        <v>6.982233028349856</v>
       </c>
       <c r="S11" t="n">
         <v>406.371246055701</v>
@@ -1444,7 +1444,7 @@
         <v>592.2818334606677</v>
       </c>
       <c r="Y11" t="n">
-        <v>511.3174326828063</v>
+        <v>511.3174326828064</v>
       </c>
     </row>
     <row r="12">
@@ -1457,7 +1457,7 @@
         <v>384.5565566463266</v>
       </c>
       <c r="C12" t="n">
-        <v>98.39067527642261</v>
+        <v>109.9482526053783</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1469,10 +1469,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>323.662110682525</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>312.1045333535693</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>86.11672794030837</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1599,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>86.11672794030837</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1627,13 +1627,13 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G14" t="n">
-        <v>399.8746768730122</v>
+        <v>399.8746768730119</v>
       </c>
       <c r="H14" t="n">
         <v>368.2460042948564</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3935447342857401</v>
+        <v>0.3935447342859982</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1694,10 +1694,10 @@
         <v>384.5565566463266</v>
       </c>
       <c r="C15" t="n">
-        <v>361.0999124455193</v>
+        <v>134.5525437735216</v>
       </c>
       <c r="D15" t="n">
-        <v>194.0301971086493</v>
+        <v>347.9376868977026</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>339.6362423378769</v>
       </c>
       <c r="G15" t="n">
-        <v>323.662110682525</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1745,10 +1745,10 @@
         <v>427.97673816528</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>396.9842838494889</v>
       </c>
       <c r="U15" t="n">
-        <v>400.0736870501537</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>414.5106671915202</v>
@@ -1760,7 +1760,7 @@
         <v>419.8627394453875</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>399.3913927661343</v>
       </c>
     </row>
     <row r="16">
@@ -1779,58 +1779,58 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
         <v>86.11672794030837</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1870,7 +1870,7 @@
         <v>368.2460042948564</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3935447342857401</v>
+        <v>0.3935447342859982</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1931,22 +1931,22 @@
         <v>384.5565566463266</v>
       </c>
       <c r="C18" t="n">
-        <v>361.0999124455193</v>
+        <v>98.39067527642261</v>
       </c>
       <c r="D18" t="n">
-        <v>347.9376868977026</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>342.6720972219126</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>339.6362423378769</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>323.662110682525</v>
       </c>
       <c r="H18" t="n">
-        <v>312.1045333535693</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1976,13 +1976,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>418.2912050771884</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>427.97673816528</v>
       </c>
       <c r="T18" t="n">
-        <v>70.56557302162743</v>
+        <v>396.9842838494889</v>
       </c>
       <c r="U18" t="n">
         <v>400.0736870501537</v>
@@ -1991,7 +1991,7 @@
         <v>414.5106671915202</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>432.3731429098285</v>
       </c>
       <c r="X18" t="n">
         <v>419.8627394453875</v>
@@ -2028,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>86.11672794030837</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>86.11672794030837</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G20" t="n">
-        <v>399.8746768730122</v>
+        <v>399.8746768730119</v>
       </c>
       <c r="H20" t="n">
         <v>368.2460042948564</v>
@@ -2177,16 +2177,16 @@
         <v>342.6720972219126</v>
       </c>
       <c r="F21" t="n">
-        <v>339.6362423378769</v>
+        <v>289.933205803245</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>323.662110682525</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>145.6010009740521</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2216,10 +2216,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>163.746932234181</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>396.9842838494889</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>400.0736870501537</v>
@@ -2228,7 +2228,7 @@
         <v>414.5106671915202</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>432.3731429098285</v>
       </c>
       <c r="X21" t="n">
         <v>419.8627394453875</v>
@@ -2259,10 +2259,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
         <v>86.11672794030837</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2405,22 +2405,22 @@
         <v>384.5565566463266</v>
       </c>
       <c r="C24" t="n">
-        <v>361.0999124455193</v>
+        <v>186.3598289730067</v>
       </c>
       <c r="D24" t="n">
-        <v>347.9376868977026</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>112.4065793818599</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>323.662110682525</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>312.1045333535693</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2459,7 +2459,7 @@
         <v>396.9842838494889</v>
       </c>
       <c r="U24" t="n">
-        <v>400.0736870501537</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>414.5106671915202</v>
@@ -2471,7 +2471,7 @@
         <v>419.8627394453875</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>399.3913927661343</v>
       </c>
     </row>
     <row r="25">
@@ -2502,46 +2502,46 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
         <v>86.11672794030837</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2645,19 +2645,19 @@
         <v>361.0999124455193</v>
       </c>
       <c r="D27" t="n">
-        <v>347.9376868977026</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>112.4065793818599</v>
+        <v>342.6720972219126</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>323.662110682525</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>312.1045333535693</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2687,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>418.2912050771884</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>427.97673816528</v>
@@ -2705,7 +2705,7 @@
         <v>432.3731429098285</v>
       </c>
       <c r="X27" t="n">
-        <v>419.8627394453875</v>
+        <v>320.0594695441315</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2736,10 +2736,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>86.11672794030834</v>
       </c>
       <c r="I28" t="n">
-        <v>86.11672794030834</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2879,13 +2879,13 @@
         <v>384.5565566463266</v>
       </c>
       <c r="C30" t="n">
-        <v>361.0999124455193</v>
+        <v>109.9482526053784</v>
       </c>
       <c r="D30" t="n">
-        <v>347.9376868977026</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>113.0888736658791</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>312.1045333535693</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>396.9842838494889</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>400.0736870501537</v>
       </c>
       <c r="V30" t="n">
         <v>414.5106671915202</v>
@@ -3012,10 +3012,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
         <v>86.11672794030834</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3116,13 +3116,13 @@
         <v>384.5565566463266</v>
       </c>
       <c r="C33" t="n">
-        <v>361.0999124455193</v>
+        <v>109.9482526053783</v>
       </c>
       <c r="D33" t="n">
-        <v>347.9376868977026</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>112.4065793818599</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>312.1045333535693</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3182,7 +3182,7 @@
         <v>419.8627394453875</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>399.3913927661343</v>
       </c>
     </row>
     <row r="34">
@@ -3210,49 +3210,49 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
         <v>86.11672794030837</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3289,10 +3289,10 @@
         <v>399.8746768730119</v>
       </c>
       <c r="H35" t="n">
-        <v>368.2460042948566</v>
+        <v>368.2460042948564</v>
       </c>
       <c r="I35" t="n">
-        <v>0.3935447342857401</v>
+        <v>0.3935447342859982</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3356,19 +3356,19 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>333.8533748131364</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>342.6720972219126</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>323.662110682525</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>312.1045333535693</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>145.6010009740521</v>
@@ -3407,13 +3407,13 @@
         <v>396.9842838494889</v>
       </c>
       <c r="U36" t="n">
-        <v>400.0736870501537</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>414.5106671915202</v>
       </c>
       <c r="W36" t="n">
-        <v>73.05828385862975</v>
+        <v>432.3731429098285</v>
       </c>
       <c r="X36" t="n">
         <v>419.8627394453875</v>
@@ -3492,13 +3492,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>86.11672794030837</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>86.11672794030837</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3587,7 +3587,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>384.5565566463266</v>
       </c>
       <c r="C39" t="n">
         <v>361.0999124455193</v>
@@ -3596,19 +3596,19 @@
         <v>347.9376868977026</v>
       </c>
       <c r="E39" t="n">
-        <v>342.6720972219126</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>339.6362423378769</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>323.662110682525</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>312.1045333535693</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>145.6010009740521</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3635,22 +3635,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>418.2912050771884</v>
       </c>
       <c r="S39" t="n">
-        <v>312.6105318945669</v>
+        <v>140.9919247810054</v>
       </c>
       <c r="T39" t="n">
         <v>396.9842838494889</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>400.0736870501537</v>
       </c>
       <c r="V39" t="n">
         <v>414.5106671915202</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>432.3731429098285</v>
       </c>
       <c r="X39" t="n">
         <v>419.8627394453875</v>
@@ -3726,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>86.11672794030837</v>
       </c>
       <c r="W40" t="n">
-        <v>86.11672794030837</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>481.9993129555745</v>
+        <v>481.9993129555743</v>
       </c>
       <c r="C41" t="n">
         <v>449.4745782429939</v>
@@ -3811,7 +3811,7 @@
         <v>638.3734759809475</v>
       </c>
       <c r="X41" t="n">
-        <v>592.2818334606678</v>
+        <v>592.2818334606677</v>
       </c>
       <c r="Y41" t="n">
         <v>511.3174326828064</v>
@@ -3827,10 +3827,10 @@
         <v>384.5565566463266</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>361.0999124455193</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>347.9376868977026</v>
       </c>
       <c r="E42" t="n">
         <v>342.6720972219126</v>
@@ -3839,13 +3839,13 @@
         <v>339.6362423378769</v>
       </c>
       <c r="G42" t="n">
-        <v>96.62326631321025</v>
+        <v>323.662110682525</v>
       </c>
       <c r="H42" t="n">
-        <v>312.1045333535693</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>145.6010009740521</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3872,22 +3872,22 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>418.2912050771884</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>427.97673816528</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>396.9842838494889</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>385.7595095758617</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>414.5106671915202</v>
       </c>
       <c r="W42" t="n">
-        <v>432.3731429098285</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>419.8627394453875</v>
@@ -3960,10 +3960,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
         <v>86.11672794030837</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -4064,22 +4064,22 @@
         <v>384.5565566463266</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>361.0999124455193</v>
       </c>
       <c r="D45" t="n">
         <v>347.9376868977026</v>
       </c>
       <c r="E45" t="n">
-        <v>342.6720972219126</v>
+        <v>24.83591420343906</v>
       </c>
       <c r="F45" t="n">
         <v>339.6362423378769</v>
       </c>
       <c r="G45" t="n">
-        <v>323.662110682525</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>312.1045333535693</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>145.6010009740521</v>
@@ -4109,22 +4109,22 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>418.2912050771884</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>427.97673816528</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>400.0736870501537</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>414.5106671915202</v>
       </c>
       <c r="W45" t="n">
-        <v>286.0644844930948</v>
+        <v>432.3731429098285</v>
       </c>
       <c r="X45" t="n">
         <v>419.8627394453875</v>
@@ -4200,13 +4200,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>86.11672794030837</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>86.11672794030837</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4336,31 +4336,31 @@
         <v>142.72</v>
       </c>
       <c r="J2" t="n">
-        <v>534.0291130376557</v>
+        <v>434.2709545127605</v>
       </c>
       <c r="K2" t="n">
-        <v>1732.689961986976</v>
+        <v>1143.977320860629</v>
       </c>
       <c r="L2" t="n">
-        <v>2639.719456556598</v>
+        <v>2051.006815430251</v>
       </c>
       <c r="M2" t="n">
-        <v>3150.568285285533</v>
+        <v>3236.805311862317</v>
       </c>
       <c r="N2" t="n">
-        <v>4449.659664025017</v>
+        <v>3914.92275750906</v>
       </c>
       <c r="O2" t="n">
-        <v>5835.812941040225</v>
+        <v>4867.965301531017</v>
       </c>
       <c r="P2" t="n">
-        <v>6697.400904947332</v>
+        <v>6282.306354802172</v>
       </c>
       <c r="Q2" t="n">
         <v>7136</v>
       </c>
       <c r="R2" t="n">
-        <v>7128.947239365304</v>
+        <v>7128.947239365303</v>
       </c>
       <c r="S2" t="n">
         <v>6718.471233248434</v>
@@ -4391,22 +4391,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1201.986506748585</v>
+        <v>1360.902560981221</v>
       </c>
       <c r="C3" t="n">
-        <v>837.2391204399794</v>
+        <v>1360.902560981221</v>
       </c>
       <c r="D3" t="n">
-        <v>485.7869114524009</v>
+        <v>1360.902560981221</v>
       </c>
       <c r="E3" t="n">
-        <v>485.7869114524009</v>
+        <v>1127.975440781789</v>
       </c>
       <c r="F3" t="n">
-        <v>142.72</v>
+        <v>784.9085293293882</v>
       </c>
       <c r="G3" t="n">
-        <v>142.72</v>
+        <v>457.9771043975447</v>
       </c>
       <c r="H3" t="n">
         <v>142.72</v>
@@ -4451,16 +4451,16 @@
         <v>2640.444530220348</v>
       </c>
       <c r="V3" t="n">
-        <v>2450.657043887653</v>
+        <v>2221.74688659255</v>
       </c>
       <c r="W3" t="n">
-        <v>2417.956899534291</v>
+        <v>1785.006338198784</v>
       </c>
       <c r="X3" t="n">
-        <v>1993.853122316727</v>
+        <v>1360.902560981221</v>
       </c>
       <c r="Y3" t="n">
-        <v>1590.427473058006</v>
+        <v>1360.902560981221</v>
       </c>
     </row>
     <row r="4">
@@ -4470,34 +4470,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>565.9312944848501</v>
+        <v>142.72</v>
       </c>
       <c r="C4" t="n">
-        <v>565.9312944848501</v>
+        <v>142.72</v>
       </c>
       <c r="D4" t="n">
-        <v>565.9312944848501</v>
+        <v>142.72</v>
       </c>
       <c r="E4" t="n">
-        <v>565.9312944848501</v>
+        <v>142.72</v>
       </c>
       <c r="F4" t="n">
-        <v>565.9312944848501</v>
+        <v>142.72</v>
       </c>
       <c r="G4" t="n">
-        <v>565.9312944848501</v>
+        <v>142.72</v>
       </c>
       <c r="H4" t="n">
-        <v>565.9312944848501</v>
+        <v>327.566531212588</v>
       </c>
       <c r="I4" t="n">
-        <v>565.9312944848501</v>
+        <v>327.566531212588</v>
       </c>
       <c r="J4" t="n">
-        <v>652.9178883639495</v>
+        <v>419.8845006145109</v>
       </c>
       <c r="K4" t="n">
-        <v>652.9178883639495</v>
+        <v>419.8845006145109</v>
       </c>
       <c r="L4" t="n">
         <v>652.9178883639495</v>
@@ -4530,16 +4530,16 @@
         <v>142.72</v>
       </c>
       <c r="V4" t="n">
-        <v>341.5413928859459</v>
+        <v>142.72</v>
       </c>
       <c r="W4" t="n">
-        <v>513.4323111456233</v>
+        <v>142.72</v>
       </c>
       <c r="X4" t="n">
-        <v>513.4323111456233</v>
+        <v>142.72</v>
       </c>
       <c r="Y4" t="n">
-        <v>565.9312944848501</v>
+        <v>142.72</v>
       </c>
     </row>
     <row r="5">
@@ -4573,25 +4573,25 @@
         <v>142.72</v>
       </c>
       <c r="J5" t="n">
-        <v>860.2726437330556</v>
+        <v>434.2709545127605</v>
       </c>
       <c r="K5" t="n">
-        <v>2058.933492682376</v>
+        <v>1143.977320860629</v>
       </c>
       <c r="L5" t="n">
-        <v>3572.554259232019</v>
+        <v>2051.006815430251</v>
       </c>
       <c r="M5" t="n">
-        <v>4083.403087960954</v>
+        <v>3206.8069351314</v>
       </c>
       <c r="N5" t="n">
-        <v>4696.623407735718</v>
+        <v>3820.027254906163</v>
       </c>
       <c r="O5" t="n">
-        <v>5649.665951757674</v>
+        <v>5420.718390895065</v>
       </c>
       <c r="P5" t="n">
-        <v>6697.400904947332</v>
+        <v>6282.306354802172</v>
       </c>
       <c r="Q5" t="n">
         <v>7136</v>
@@ -4634,10 +4634,10 @@
         <v>204.2885591044731</v>
       </c>
       <c r="D6" t="n">
-        <v>204.2885591044731</v>
+        <v>142.72</v>
       </c>
       <c r="E6" t="n">
-        <v>204.2885591044731</v>
+        <v>142.72</v>
       </c>
       <c r="F6" t="n">
         <v>142.72</v>
@@ -4707,40 +4707,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>441.5703218929146</v>
+        <v>142.72</v>
       </c>
       <c r="C7" t="n">
-        <v>441.5703218929146</v>
+        <v>142.72</v>
       </c>
       <c r="D7" t="n">
-        <v>441.5703218929146</v>
+        <v>142.72</v>
       </c>
       <c r="E7" t="n">
-        <v>441.5703218929146</v>
+        <v>142.72</v>
       </c>
       <c r="F7" t="n">
-        <v>565.9312944848501</v>
+        <v>142.72</v>
       </c>
       <c r="G7" t="n">
-        <v>565.9312944848501</v>
+        <v>142.72</v>
       </c>
       <c r="H7" t="n">
-        <v>565.9312944848501</v>
+        <v>142.72</v>
       </c>
       <c r="I7" t="n">
-        <v>565.9312944848501</v>
+        <v>142.72</v>
       </c>
       <c r="J7" t="n">
-        <v>652.9178883639495</v>
+        <v>325.5039603958979</v>
       </c>
       <c r="K7" t="n">
-        <v>652.9178883639495</v>
+        <v>325.5039603958979</v>
       </c>
       <c r="L7" t="n">
-        <v>652.9178883639495</v>
+        <v>558.5373481453365</v>
       </c>
       <c r="M7" t="n">
-        <v>652.9178883639495</v>
+        <v>558.5373481453365</v>
       </c>
       <c r="N7" t="n">
         <v>652.9178883639495</v>
@@ -4761,22 +4761,22 @@
         <v>142.72</v>
       </c>
       <c r="T7" t="n">
-        <v>194.9250805058354</v>
+        <v>142.72</v>
       </c>
       <c r="U7" t="n">
-        <v>441.5703218929146</v>
+        <v>142.72</v>
       </c>
       <c r="V7" t="n">
-        <v>441.5703218929146</v>
+        <v>142.72</v>
       </c>
       <c r="W7" t="n">
-        <v>441.5703218929146</v>
+        <v>142.72</v>
       </c>
       <c r="X7" t="n">
-        <v>441.5703218929146</v>
+        <v>142.72</v>
       </c>
       <c r="Y7" t="n">
-        <v>441.5703218929146</v>
+        <v>142.72</v>
       </c>
     </row>
     <row r="8">
@@ -4816,19 +4816,19 @@
         <v>2058.933492682376</v>
       </c>
       <c r="L8" t="n">
-        <v>3072.830189549852</v>
+        <v>3043.596373599643</v>
       </c>
       <c r="M8" t="n">
-        <v>3583.679018278787</v>
+        <v>4229.394870031709</v>
       </c>
       <c r="N8" t="n">
-        <v>4882.77039701827</v>
+        <v>4842.615189806472</v>
       </c>
       <c r="O8" t="n">
-        <v>5835.812941040226</v>
+        <v>5420.718390895066</v>
       </c>
       <c r="P8" t="n">
-        <v>6697.400904947333</v>
+        <v>6282.306354802173</v>
       </c>
       <c r="Q8" t="n">
         <v>7136</v>
@@ -4865,25 +4865,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1875.051363217714</v>
+        <v>957.4769117224993</v>
       </c>
       <c r="C9" t="n">
-        <v>1510.303976909108</v>
+        <v>957.4769117224993</v>
       </c>
       <c r="D9" t="n">
-        <v>1158.85176792153</v>
+        <v>606.0247027349208</v>
       </c>
       <c r="E9" t="n">
-        <v>812.7183363842444</v>
+        <v>606.0247027349208</v>
       </c>
       <c r="F9" t="n">
-        <v>469.6514249318435</v>
+        <v>262.9577912825198</v>
       </c>
       <c r="G9" t="n">
-        <v>142.72</v>
+        <v>262.9577912825198</v>
       </c>
       <c r="H9" t="n">
-        <v>142.72</v>
+        <v>262.9577912825198</v>
       </c>
       <c r="I9" t="n">
         <v>142.72</v>
@@ -4916,25 +4916,25 @@
         <v>3877.853327255624</v>
       </c>
       <c r="S9" t="n">
-        <v>3539.447797418562</v>
+        <v>3445.553591735139</v>
       </c>
       <c r="T9" t="n">
-        <v>3138.453571307967</v>
+        <v>3044.559365624544</v>
       </c>
       <c r="U9" t="n">
-        <v>2734.338735903772</v>
+        <v>2640.444530220348</v>
       </c>
       <c r="V9" t="n">
-        <v>2719.681496316377</v>
+        <v>2221.74688659255</v>
       </c>
       <c r="W9" t="n">
-        <v>2686.981351963015</v>
+        <v>1785.006338198784</v>
       </c>
       <c r="X9" t="n">
-        <v>2666.917978785856</v>
+        <v>1360.902560981221</v>
       </c>
       <c r="Y9" t="n">
-        <v>2263.492329527135</v>
+        <v>957.4769117224993</v>
       </c>
     </row>
     <row r="10">
@@ -4944,34 +4944,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>254.1293006790323</v>
+        <v>142.72</v>
       </c>
       <c r="C10" t="n">
-        <v>254.1293006790323</v>
+        <v>142.72</v>
       </c>
       <c r="D10" t="n">
-        <v>332.8979067354115</v>
+        <v>142.72</v>
       </c>
       <c r="E10" t="n">
-        <v>332.8979067354115</v>
+        <v>142.72</v>
       </c>
       <c r="F10" t="n">
-        <v>332.8979067354115</v>
+        <v>142.72</v>
       </c>
       <c r="G10" t="n">
-        <v>332.8979067354115</v>
+        <v>142.72</v>
       </c>
       <c r="H10" t="n">
-        <v>332.8979067354115</v>
+        <v>142.72</v>
       </c>
       <c r="I10" t="n">
-        <v>332.8979067354115</v>
+        <v>415.7050891037249</v>
       </c>
       <c r="J10" t="n">
-        <v>419.8845006145109</v>
+        <v>652.9178883639495</v>
       </c>
       <c r="K10" t="n">
-        <v>419.8845006145109</v>
+        <v>652.9178883639495</v>
       </c>
       <c r="L10" t="n">
         <v>652.9178883639495</v>
@@ -5013,7 +5013,7 @@
         <v>142.72</v>
       </c>
       <c r="Y10" t="n">
-        <v>254.1293006790323</v>
+        <v>142.72</v>
       </c>
     </row>
     <row r="11">
@@ -5047,25 +5047,25 @@
         <v>142.72</v>
       </c>
       <c r="J11" t="n">
-        <v>534.0291130376557</v>
+        <v>860.2726437330556</v>
       </c>
       <c r="K11" t="n">
-        <v>1732.689961986976</v>
+        <v>1569.979010080924</v>
       </c>
       <c r="L11" t="n">
-        <v>2639.719456556598</v>
+        <v>2477.008504650546</v>
       </c>
       <c r="M11" t="n">
-        <v>3150.568285285533</v>
+        <v>3168.584468133626</v>
       </c>
       <c r="N11" t="n">
-        <v>4330.017307654221</v>
+        <v>4467.67584687311</v>
       </c>
       <c r="O11" t="n">
-        <v>5283.059851676178</v>
+        <v>5420.718390895066</v>
       </c>
       <c r="P11" t="n">
-        <v>6697.400904947333</v>
+        <v>6282.306354802173</v>
       </c>
       <c r="Q11" t="n">
         <v>7136</v>
@@ -5105,19 +5105,19 @@
         <v>569.0359454130785</v>
       </c>
       <c r="C12" t="n">
-        <v>469.6514249318435</v>
+        <v>457.9771043975448</v>
       </c>
       <c r="D12" t="n">
-        <v>469.6514249318435</v>
+        <v>457.9771043975448</v>
       </c>
       <c r="E12" t="n">
-        <v>469.6514249318435</v>
+        <v>457.9771043975448</v>
       </c>
       <c r="F12" t="n">
-        <v>469.6514249318435</v>
+        <v>457.9771043975448</v>
       </c>
       <c r="G12" t="n">
-        <v>142.72</v>
+        <v>457.9771043975448</v>
       </c>
       <c r="H12" t="n">
         <v>142.72</v>
@@ -5238,13 +5238,13 @@
         <v>229.7065938790994</v>
       </c>
       <c r="U13" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="V13" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="W13" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="X13" t="n">
         <v>142.72</v>
@@ -5275,34 +5275,34 @@
         <v>918.996995860762</v>
       </c>
       <c r="G14" t="n">
-        <v>515.0831808375174</v>
+        <v>515.0831808375176</v>
       </c>
       <c r="H14" t="n">
-        <v>143.117519933622</v>
+        <v>143.1175199336222</v>
       </c>
       <c r="I14" t="n">
         <v>142.72</v>
       </c>
       <c r="J14" t="n">
-        <v>534.0291130376557</v>
+        <v>860.2726437330556</v>
       </c>
       <c r="K14" t="n">
-        <v>1732.689961986976</v>
+        <v>2058.933492682376</v>
       </c>
       <c r="L14" t="n">
-        <v>3246.310728536619</v>
+        <v>3343.606698369411</v>
       </c>
       <c r="M14" t="n">
-        <v>4269.550077243507</v>
+        <v>3854.455527098346</v>
       </c>
       <c r="N14" t="n">
-        <v>4882.77039701827</v>
+        <v>4467.67584687311</v>
       </c>
       <c r="O14" t="n">
-        <v>5835.812941040226</v>
+        <v>5420.718390895066</v>
       </c>
       <c r="P14" t="n">
-        <v>6697.400904947333</v>
+        <v>6282.306354802173</v>
       </c>
       <c r="Q14" t="n">
         <v>7136</v>
@@ -5339,19 +5339,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1373.455820782395</v>
+        <v>973.1507808172739</v>
       </c>
       <c r="C15" t="n">
-        <v>1008.708434473789</v>
+        <v>837.2391204399794</v>
       </c>
       <c r="D15" t="n">
-        <v>812.7183363842444</v>
+        <v>485.7869114524009</v>
       </c>
       <c r="E15" t="n">
-        <v>812.7183363842444</v>
+        <v>485.7869114524009</v>
       </c>
       <c r="F15" t="n">
-        <v>469.6514249318435</v>
+        <v>142.72</v>
       </c>
       <c r="G15" t="n">
         <v>142.72</v>
@@ -5393,22 +5393,22 @@
         <v>3445.553591735139</v>
       </c>
       <c r="T15" t="n">
-        <v>3445.553591735139</v>
+        <v>3044.559365624544</v>
       </c>
       <c r="U15" t="n">
-        <v>3041.438756330943</v>
+        <v>3044.559365624544</v>
       </c>
       <c r="V15" t="n">
-        <v>2622.741112703145</v>
+        <v>2625.861721996746</v>
       </c>
       <c r="W15" t="n">
-        <v>2186.000564309379</v>
+        <v>2189.12117360298</v>
       </c>
       <c r="X15" t="n">
-        <v>1761.896787091815</v>
+        <v>1765.017396385416</v>
       </c>
       <c r="Y15" t="n">
-        <v>1761.896787091815</v>
+        <v>1361.591747126695</v>
       </c>
     </row>
     <row r="16">
@@ -5418,13 +5418,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="C16" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="D16" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="E16" t="n">
         <v>142.72</v>
@@ -5478,16 +5478,16 @@
         <v>229.7065938790994</v>
       </c>
       <c r="V16" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="W16" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="X16" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="Y16" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
     </row>
     <row r="17">
@@ -5500,22 +5500,22 @@
         <v>2604.922907272605</v>
       </c>
       <c r="C17" t="n">
-        <v>2150.908181774632</v>
+        <v>2150.908181774631</v>
       </c>
       <c r="D17" t="n">
-        <v>1736.424186077814</v>
+        <v>1736.424186077813</v>
       </c>
       <c r="E17" t="n">
-        <v>1327.976418798149</v>
+        <v>1327.976418798148</v>
       </c>
       <c r="F17" t="n">
-        <v>918.9969958607638</v>
+        <v>918.996995860762</v>
       </c>
       <c r="G17" t="n">
-        <v>515.0831808375187</v>
+        <v>515.0831808375176</v>
       </c>
       <c r="H17" t="n">
-        <v>143.117519933622</v>
+        <v>143.1175199336222</v>
       </c>
       <c r="I17" t="n">
         <v>142.72</v>
@@ -5524,19 +5524,19 @@
         <v>860.2726437330556</v>
       </c>
       <c r="K17" t="n">
-        <v>1788.928611832843</v>
+        <v>1569.979010080924</v>
       </c>
       <c r="L17" t="n">
-        <v>2695.958106402466</v>
+        <v>2477.008504650546</v>
       </c>
       <c r="M17" t="n">
-        <v>3206.806935131401</v>
+        <v>2987.857333379482</v>
       </c>
       <c r="N17" t="n">
-        <v>3820.027254906164</v>
+        <v>3601.077653154245</v>
       </c>
       <c r="O17" t="n">
-        <v>5420.718390895066</v>
+        <v>5201.768789143147</v>
       </c>
       <c r="P17" t="n">
         <v>6282.306354802173</v>
@@ -5545,28 +5545,28 @@
         <v>7136</v>
       </c>
       <c r="R17" t="n">
-        <v>7128.947239365305</v>
+        <v>7128.947239365304</v>
       </c>
       <c r="S17" t="n">
-        <v>6718.471233248435</v>
+        <v>6718.471233248434</v>
       </c>
       <c r="T17" t="n">
-        <v>6143.037816527465</v>
+        <v>6143.037816527464</v>
       </c>
       <c r="U17" t="n">
-        <v>5487.572482269394</v>
+        <v>5487.572482269393</v>
       </c>
       <c r="V17" t="n">
-        <v>4851.359326545329</v>
+        <v>4851.359326545328</v>
       </c>
       <c r="W17" t="n">
-        <v>4206.537633635281</v>
+        <v>4206.53763363528</v>
       </c>
       <c r="X17" t="n">
-        <v>3608.273155392182</v>
+        <v>3608.273155392181</v>
       </c>
       <c r="Y17" t="n">
-        <v>3091.790900157024</v>
+        <v>3091.790900157023</v>
       </c>
     </row>
     <row r="18">
@@ -5576,22 +5576,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2190.308467615258</v>
+        <v>569.0359454130785</v>
       </c>
       <c r="C18" t="n">
-        <v>1825.561081306653</v>
+        <v>469.6514249318435</v>
       </c>
       <c r="D18" t="n">
-        <v>1474.108872319075</v>
+        <v>469.6514249318435</v>
       </c>
       <c r="E18" t="n">
-        <v>1127.975440781789</v>
+        <v>469.6514249318435</v>
       </c>
       <c r="F18" t="n">
-        <v>784.9085293293883</v>
+        <v>469.6514249318435</v>
       </c>
       <c r="G18" t="n">
-        <v>457.9771043975448</v>
+        <v>142.72</v>
       </c>
       <c r="H18" t="n">
         <v>142.72</v>
@@ -5624,28 +5624,28 @@
         <v>4300.369696020461</v>
       </c>
       <c r="R18" t="n">
-        <v>4300.369696020461</v>
+        <v>3877.853327255624</v>
       </c>
       <c r="S18" t="n">
-        <v>4300.369696020461</v>
+        <v>3445.553591735139</v>
       </c>
       <c r="T18" t="n">
-        <v>4229.091339432958</v>
+        <v>3044.559365624544</v>
       </c>
       <c r="U18" t="n">
-        <v>3824.976504028762</v>
+        <v>2640.444530220348</v>
       </c>
       <c r="V18" t="n">
-        <v>3406.278860400964</v>
+        <v>2221.74688659255</v>
       </c>
       <c r="W18" t="n">
-        <v>3406.278860400964</v>
+        <v>1785.006338198784</v>
       </c>
       <c r="X18" t="n">
-        <v>2982.175083183401</v>
+        <v>1360.902560981221</v>
       </c>
       <c r="Y18" t="n">
-        <v>2578.749433924679</v>
+        <v>957.4769117224993</v>
       </c>
     </row>
     <row r="19">
@@ -5655,25 +5655,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>142.72</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="C19" t="n">
-        <v>142.72</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="D19" t="n">
-        <v>142.72</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="E19" t="n">
-        <v>142.72</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="F19" t="n">
-        <v>142.72</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="G19" t="n">
-        <v>142.72</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="H19" t="n">
-        <v>142.72</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="I19" t="n">
         <v>142.72</v>
@@ -5715,16 +5715,16 @@
         <v>229.7065938790994</v>
       </c>
       <c r="V19" t="n">
-        <v>142.72</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="W19" t="n">
-        <v>142.72</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="X19" t="n">
-        <v>142.72</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="Y19" t="n">
-        <v>142.72</v>
+        <v>229.7065938790994</v>
       </c>
     </row>
     <row r="20">
@@ -5746,7 +5746,7 @@
         <v>1327.976418798148</v>
       </c>
       <c r="F20" t="n">
-        <v>918.996995860762</v>
+        <v>918.9969958607618</v>
       </c>
       <c r="G20" t="n">
         <v>515.0831808375174</v>
@@ -5758,25 +5758,25 @@
         <v>142.72</v>
       </c>
       <c r="J20" t="n">
-        <v>534.0291130376557</v>
+        <v>860.2726437330556</v>
       </c>
       <c r="K20" t="n">
-        <v>1732.689961986976</v>
+        <v>2058.933492682376</v>
       </c>
       <c r="L20" t="n">
-        <v>3246.310728536619</v>
+        <v>3343.606698369411</v>
       </c>
       <c r="M20" t="n">
-        <v>4269.550077243507</v>
+        <v>3854.455527098346</v>
       </c>
       <c r="N20" t="n">
-        <v>4882.77039701827</v>
+        <v>4467.67584687311</v>
       </c>
       <c r="O20" t="n">
-        <v>5835.812941040226</v>
+        <v>5420.718390895066</v>
       </c>
       <c r="P20" t="n">
-        <v>6697.400904947333</v>
+        <v>6282.306354802173</v>
       </c>
       <c r="Q20" t="n">
         <v>7136</v>
@@ -5813,25 +5813,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1695.191656441478</v>
+        <v>1824.846275808995</v>
       </c>
       <c r="C21" t="n">
-        <v>1330.444270132873</v>
+        <v>1460.098889500389</v>
       </c>
       <c r="D21" t="n">
-        <v>978.9920611452947</v>
+        <v>1108.646680512811</v>
       </c>
       <c r="E21" t="n">
-        <v>632.8586296080091</v>
+        <v>762.5132489755254</v>
       </c>
       <c r="F21" t="n">
-        <v>289.7917181556082</v>
+        <v>469.6514249318435</v>
       </c>
       <c r="G21" t="n">
-        <v>289.7917181556082</v>
+        <v>142.72</v>
       </c>
       <c r="H21" t="n">
-        <v>289.7917181556082</v>
+        <v>142.72</v>
       </c>
       <c r="I21" t="n">
         <v>142.72</v>
@@ -5864,25 +5864,25 @@
         <v>4300.369696020461</v>
       </c>
       <c r="S21" t="n">
-        <v>4134.968754369773</v>
+        <v>4300.369696020461</v>
       </c>
       <c r="T21" t="n">
-        <v>3733.974528259178</v>
+        <v>4300.369696020461</v>
       </c>
       <c r="U21" t="n">
-        <v>3329.859692854982</v>
+        <v>3896.254860616265</v>
       </c>
       <c r="V21" t="n">
-        <v>2911.162049227184</v>
+        <v>3477.557216988467</v>
       </c>
       <c r="W21" t="n">
-        <v>2911.162049227184</v>
+        <v>3040.8166685947</v>
       </c>
       <c r="X21" t="n">
-        <v>2487.058272009621</v>
+        <v>2616.712891377137</v>
       </c>
       <c r="Y21" t="n">
-        <v>2083.632622750899</v>
+        <v>2213.287242118416</v>
       </c>
     </row>
     <row r="22">
@@ -5907,7 +5907,7 @@
         <v>229.7065938790994</v>
       </c>
       <c r="G22" t="n">
-        <v>142.72</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="H22" t="n">
         <v>142.72</v>
@@ -5974,19 +5974,19 @@
         <v>2604.922907272605</v>
       </c>
       <c r="C23" t="n">
-        <v>2150.908181774631</v>
+        <v>2150.908181774632</v>
       </c>
       <c r="D23" t="n">
-        <v>1736.424186077813</v>
+        <v>1736.424186077814</v>
       </c>
       <c r="E23" t="n">
-        <v>1327.976418798148</v>
+        <v>1327.976418798149</v>
       </c>
       <c r="F23" t="n">
-        <v>918.9969958607618</v>
+        <v>918.9969958607638</v>
       </c>
       <c r="G23" t="n">
-        <v>515.0831808375174</v>
+        <v>515.0831808375187</v>
       </c>
       <c r="H23" t="n">
         <v>143.117519933622</v>
@@ -6001,16 +6001,16 @@
         <v>1569.979010080924</v>
       </c>
       <c r="L23" t="n">
-        <v>2477.008504650546</v>
+        <v>1569.979010080924</v>
       </c>
       <c r="M23" t="n">
-        <v>3662.807001082612</v>
+        <v>2755.77750651299</v>
       </c>
       <c r="N23" t="n">
-        <v>4467.67584687311</v>
+        <v>3368.997826287753</v>
       </c>
       <c r="O23" t="n">
-        <v>5420.718390895066</v>
+        <v>4867.965301531018</v>
       </c>
       <c r="P23" t="n">
         <v>6282.306354802173</v>
@@ -6019,28 +6019,28 @@
         <v>7136</v>
       </c>
       <c r="R23" t="n">
-        <v>7128.947239365304</v>
+        <v>7128.947239365305</v>
       </c>
       <c r="S23" t="n">
-        <v>6718.471233248434</v>
+        <v>6718.471233248435</v>
       </c>
       <c r="T23" t="n">
-        <v>6143.037816527464</v>
+        <v>6143.037816527465</v>
       </c>
       <c r="U23" t="n">
-        <v>5487.572482269393</v>
+        <v>5487.572482269394</v>
       </c>
       <c r="V23" t="n">
-        <v>4851.359326545328</v>
+        <v>4851.359326545329</v>
       </c>
       <c r="W23" t="n">
-        <v>4206.53763363528</v>
+        <v>4206.537633635281</v>
       </c>
       <c r="X23" t="n">
-        <v>3608.273155392181</v>
+        <v>3608.273155392182</v>
       </c>
       <c r="Y23" t="n">
-        <v>3091.790900157023</v>
+        <v>3091.790900157024</v>
       </c>
     </row>
     <row r="24">
@@ -6050,22 +6050,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>972.4615946718</v>
+        <v>973.1507808172739</v>
       </c>
       <c r="C24" t="n">
-        <v>607.7142083631945</v>
+        <v>784.9085293293883</v>
       </c>
       <c r="D24" t="n">
-        <v>256.2619993756161</v>
+        <v>784.9085293293883</v>
       </c>
       <c r="E24" t="n">
-        <v>142.72</v>
+        <v>784.9085293293883</v>
       </c>
       <c r="F24" t="n">
-        <v>142.72</v>
+        <v>784.9085293293883</v>
       </c>
       <c r="G24" t="n">
-        <v>142.72</v>
+        <v>457.9771043975448</v>
       </c>
       <c r="H24" t="n">
         <v>142.72</v>
@@ -6107,19 +6107,19 @@
         <v>3044.559365624544</v>
       </c>
       <c r="U24" t="n">
-        <v>2640.444530220348</v>
+        <v>3044.559365624544</v>
       </c>
       <c r="V24" t="n">
-        <v>2221.74688659255</v>
+        <v>2625.861721996746</v>
       </c>
       <c r="W24" t="n">
-        <v>1785.006338198784</v>
+        <v>2189.12117360298</v>
       </c>
       <c r="X24" t="n">
-        <v>1360.902560981221</v>
+        <v>1765.017396385416</v>
       </c>
       <c r="Y24" t="n">
-        <v>1360.902560981221</v>
+        <v>1361.591747126695</v>
       </c>
     </row>
     <row r="25">
@@ -6129,25 +6129,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="C25" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="D25" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="E25" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="F25" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="G25" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="H25" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="I25" t="n">
         <v>142.72</v>
@@ -6189,16 +6189,16 @@
         <v>229.7065938790994</v>
       </c>
       <c r="V25" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="W25" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="X25" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="Y25" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
     </row>
     <row r="26">
@@ -6235,22 +6235,22 @@
         <v>860.2726437330556</v>
       </c>
       <c r="K26" t="n">
-        <v>2058.933492682376</v>
+        <v>1569.979010080924</v>
       </c>
       <c r="L26" t="n">
-        <v>2965.962987251998</v>
+        <v>2790.853609005362</v>
       </c>
       <c r="M26" t="n">
-        <v>3583.679018278785</v>
+        <v>3301.702437734297</v>
       </c>
       <c r="N26" t="n">
-        <v>4882.770397018268</v>
+        <v>3914.92275750906</v>
       </c>
       <c r="O26" t="n">
-        <v>5835.812941040225</v>
+        <v>4867.965301531017</v>
       </c>
       <c r="P26" t="n">
-        <v>6697.400904947332</v>
+        <v>6282.306354802172</v>
       </c>
       <c r="Q26" t="n">
         <v>7136</v>
@@ -6287,22 +6287,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>972.4615946718</v>
+        <v>1495.789347175279</v>
       </c>
       <c r="C27" t="n">
-        <v>607.7142083631945</v>
+        <v>1131.041960866674</v>
       </c>
       <c r="D27" t="n">
-        <v>256.2619993756161</v>
+        <v>1131.041960866674</v>
       </c>
       <c r="E27" t="n">
-        <v>142.72</v>
+        <v>784.9085293293882</v>
       </c>
       <c r="F27" t="n">
-        <v>142.72</v>
+        <v>784.9085293293882</v>
       </c>
       <c r="G27" t="n">
-        <v>142.72</v>
+        <v>457.9771043975447</v>
       </c>
       <c r="H27" t="n">
         <v>142.72</v>
@@ -6335,28 +6335,28 @@
         <v>4300.369696020461</v>
       </c>
       <c r="R27" t="n">
-        <v>3877.853327255624</v>
+        <v>4300.369696020461</v>
       </c>
       <c r="S27" t="n">
-        <v>3445.553591735139</v>
+        <v>3868.069960499976</v>
       </c>
       <c r="T27" t="n">
-        <v>3044.559365624544</v>
+        <v>3467.075734389381</v>
       </c>
       <c r="U27" t="n">
-        <v>2640.444530220348</v>
+        <v>3062.960898985185</v>
       </c>
       <c r="V27" t="n">
-        <v>2221.74688659255</v>
+        <v>2644.263255357387</v>
       </c>
       <c r="W27" t="n">
-        <v>1785.006338198784</v>
+        <v>2207.522706963621</v>
       </c>
       <c r="X27" t="n">
-        <v>1360.902560981221</v>
+        <v>1884.2303134847</v>
       </c>
       <c r="Y27" t="n">
-        <v>1360.902560981221</v>
+        <v>1884.2303134847</v>
       </c>
     </row>
     <row r="28">
@@ -6384,7 +6384,7 @@
         <v>229.7065938790993</v>
       </c>
       <c r="H28" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="I28" t="n">
         <v>142.72</v>
@@ -6469,22 +6469,22 @@
         <v>142.72</v>
       </c>
       <c r="J29" t="n">
-        <v>534.0291130376557</v>
+        <v>860.2726437330556</v>
       </c>
       <c r="K29" t="n">
-        <v>1243.735479385524</v>
+        <v>1569.979010080924</v>
       </c>
       <c r="L29" t="n">
-        <v>2150.764973955147</v>
+        <v>2668.657030666279</v>
       </c>
       <c r="M29" t="n">
-        <v>2661.613802684082</v>
+        <v>3854.455527098345</v>
       </c>
       <c r="N29" t="n">
-        <v>3914.92275750906</v>
+        <v>4467.675846873108</v>
       </c>
       <c r="O29" t="n">
-        <v>4867.965301531017</v>
+        <v>5420.718390895065</v>
       </c>
       <c r="P29" t="n">
         <v>6282.306354802172</v>
@@ -6524,22 +6524,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>973.1507808172739</v>
+        <v>569.0359454130785</v>
       </c>
       <c r="C30" t="n">
-        <v>608.4033945086685</v>
+        <v>457.9771043975447</v>
       </c>
       <c r="D30" t="n">
-        <v>256.9511855210901</v>
+        <v>457.9771043975447</v>
       </c>
       <c r="E30" t="n">
-        <v>142.72</v>
+        <v>457.9771043975447</v>
       </c>
       <c r="F30" t="n">
-        <v>142.72</v>
+        <v>457.9771043975447</v>
       </c>
       <c r="G30" t="n">
-        <v>142.72</v>
+        <v>457.9771043975447</v>
       </c>
       <c r="H30" t="n">
         <v>142.72</v>
@@ -6581,19 +6581,19 @@
         <v>3044.559365624544</v>
       </c>
       <c r="U30" t="n">
-        <v>3044.559365624544</v>
+        <v>2640.444530220348</v>
       </c>
       <c r="V30" t="n">
-        <v>2625.861721996746</v>
+        <v>2221.74688659255</v>
       </c>
       <c r="W30" t="n">
-        <v>2189.12117360298</v>
+        <v>1785.006338198784</v>
       </c>
       <c r="X30" t="n">
-        <v>1765.017396385416</v>
+        <v>1360.902560981221</v>
       </c>
       <c r="Y30" t="n">
-        <v>1361.591747126695</v>
+        <v>957.4769117224993</v>
       </c>
     </row>
     <row r="31">
@@ -6660,7 +6660,7 @@
         <v>229.7065938790993</v>
       </c>
       <c r="U31" t="n">
-        <v>142.72</v>
+        <v>229.7065938790993</v>
       </c>
       <c r="V31" t="n">
         <v>142.72</v>
@@ -6712,19 +6712,19 @@
         <v>2058.933492682376</v>
       </c>
       <c r="L32" t="n">
-        <v>3572.554259232019</v>
+        <v>3343.606698369411</v>
       </c>
       <c r="M32" t="n">
-        <v>4083.403087960954</v>
+        <v>3854.455527098346</v>
       </c>
       <c r="N32" t="n">
-        <v>4882.77039701827</v>
+        <v>4467.67584687311</v>
       </c>
       <c r="O32" t="n">
-        <v>5835.812941040226</v>
+        <v>5420.718390895066</v>
       </c>
       <c r="P32" t="n">
-        <v>6697.400904947333</v>
+        <v>6282.306354802173</v>
       </c>
       <c r="Q32" t="n">
         <v>7136</v>
@@ -6761,22 +6761,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>972.4615946718</v>
+        <v>569.0359454130785</v>
       </c>
       <c r="C33" t="n">
-        <v>607.7142083631945</v>
+        <v>457.9771043975448</v>
       </c>
       <c r="D33" t="n">
-        <v>256.2619993756161</v>
+        <v>457.9771043975448</v>
       </c>
       <c r="E33" t="n">
-        <v>142.72</v>
+        <v>457.9771043975448</v>
       </c>
       <c r="F33" t="n">
-        <v>142.72</v>
+        <v>457.9771043975448</v>
       </c>
       <c r="G33" t="n">
-        <v>142.72</v>
+        <v>457.9771043975448</v>
       </c>
       <c r="H33" t="n">
         <v>142.72</v>
@@ -6830,7 +6830,7 @@
         <v>1360.902560981221</v>
       </c>
       <c r="Y33" t="n">
-        <v>1360.902560981221</v>
+        <v>957.4769117224993</v>
       </c>
     </row>
     <row r="34">
@@ -6840,22 +6840,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="C34" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="D34" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="E34" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="F34" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="H34" t="n">
         <v>142.72</v>
@@ -6900,16 +6900,16 @@
         <v>229.7065938790994</v>
       </c>
       <c r="V34" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="W34" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="X34" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="Y34" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
     </row>
     <row r="35">
@@ -6937,25 +6937,25 @@
         <v>515.0831808375176</v>
       </c>
       <c r="H35" t="n">
-        <v>143.117519933622</v>
+        <v>143.1175199336222</v>
       </c>
       <c r="I35" t="n">
         <v>142.72</v>
       </c>
       <c r="J35" t="n">
-        <v>534.0291130376557</v>
+        <v>860.2726437330556</v>
       </c>
       <c r="K35" t="n">
-        <v>1243.735479385524</v>
+        <v>1569.979010080924</v>
       </c>
       <c r="L35" t="n">
-        <v>2150.764973955147</v>
+        <v>2479.921892974005</v>
       </c>
       <c r="M35" t="n">
-        <v>2661.613802684082</v>
+        <v>2990.770721702941</v>
       </c>
       <c r="N35" t="n">
-        <v>3914.922757509061</v>
+        <v>4289.862100442424</v>
       </c>
       <c r="O35" t="n">
         <v>4867.965301531018</v>
@@ -6998,22 +6998,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>931.9802474849965</v>
+        <v>973.1507808172739</v>
       </c>
       <c r="C36" t="n">
-        <v>931.9802474849965</v>
+        <v>973.1507808172739</v>
       </c>
       <c r="D36" t="n">
-        <v>931.9802474849965</v>
+        <v>635.9251496928937</v>
       </c>
       <c r="E36" t="n">
-        <v>931.9802474849965</v>
+        <v>289.7917181556082</v>
       </c>
       <c r="F36" t="n">
-        <v>931.9802474849965</v>
+        <v>289.7917181556082</v>
       </c>
       <c r="G36" t="n">
-        <v>605.0488225531531</v>
+        <v>289.7917181556082</v>
       </c>
       <c r="H36" t="n">
         <v>289.7917181556082</v>
@@ -7055,19 +7055,19 @@
         <v>3044.559365624544</v>
       </c>
       <c r="U36" t="n">
-        <v>2640.444530220348</v>
+        <v>3044.559365624544</v>
       </c>
       <c r="V36" t="n">
-        <v>2221.74688659255</v>
+        <v>2625.861721996746</v>
       </c>
       <c r="W36" t="n">
-        <v>2147.950640270702</v>
+        <v>2189.12117360298</v>
       </c>
       <c r="X36" t="n">
-        <v>1723.846863053139</v>
+        <v>1765.017396385416</v>
       </c>
       <c r="Y36" t="n">
-        <v>1320.421213794417</v>
+        <v>1361.591747126695</v>
       </c>
     </row>
     <row r="37">
@@ -7140,10 +7140,10 @@
         <v>229.7065938790994</v>
       </c>
       <c r="W37" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="X37" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="Y37" t="n">
         <v>142.72</v>
@@ -7180,25 +7180,25 @@
         <v>142.72</v>
       </c>
       <c r="J38" t="n">
-        <v>434.2709545127605</v>
+        <v>860.2726437330556</v>
       </c>
       <c r="K38" t="n">
-        <v>1632.931803462081</v>
+        <v>1569.979010080924</v>
       </c>
       <c r="L38" t="n">
-        <v>3146.552570011724</v>
+        <v>2479.921892974005</v>
       </c>
       <c r="M38" t="n">
-        <v>4269.550077243507</v>
+        <v>2990.770721702941</v>
       </c>
       <c r="N38" t="n">
-        <v>4882.77039701827</v>
+        <v>4289.862100442424</v>
       </c>
       <c r="O38" t="n">
-        <v>5835.812941040226</v>
+        <v>4867.965301531018</v>
       </c>
       <c r="P38" t="n">
-        <v>6697.400904947333</v>
+        <v>6282.306354802173</v>
       </c>
       <c r="Q38" t="n">
         <v>7136</v>
@@ -7235,25 +7235,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2337.380185770867</v>
+        <v>858.9195952961838</v>
       </c>
       <c r="C39" t="n">
-        <v>1972.632799462261</v>
+        <v>494.1722089875785</v>
       </c>
       <c r="D39" t="n">
-        <v>1621.180590474683</v>
+        <v>142.72</v>
       </c>
       <c r="E39" t="n">
-        <v>1275.047158937397</v>
+        <v>142.72</v>
       </c>
       <c r="F39" t="n">
-        <v>931.9802474849965</v>
+        <v>142.72</v>
       </c>
       <c r="G39" t="n">
-        <v>605.0488225531531</v>
+        <v>142.72</v>
       </c>
       <c r="H39" t="n">
-        <v>289.7917181556082</v>
+        <v>142.72</v>
       </c>
       <c r="I39" t="n">
         <v>142.72</v>
@@ -7283,28 +7283,28 @@
         <v>4300.369696020461</v>
       </c>
       <c r="R39" t="n">
-        <v>4300.369696020461</v>
+        <v>3877.853327255624</v>
       </c>
       <c r="S39" t="n">
-        <v>3984.601481985545</v>
+        <v>3735.437241618245</v>
       </c>
       <c r="T39" t="n">
-        <v>3583.60725587495</v>
+        <v>3334.44301550765</v>
       </c>
       <c r="U39" t="n">
-        <v>3583.60725587495</v>
+        <v>2930.328180103454</v>
       </c>
       <c r="V39" t="n">
-        <v>3164.909612247151</v>
+        <v>2511.630536475656</v>
       </c>
       <c r="W39" t="n">
-        <v>3164.909612247151</v>
+        <v>2074.889988081889</v>
       </c>
       <c r="X39" t="n">
-        <v>2740.805835029588</v>
+        <v>1650.786210864326</v>
       </c>
       <c r="Y39" t="n">
-        <v>2337.380185770867</v>
+        <v>1247.360561605605</v>
       </c>
     </row>
     <row r="40">
@@ -7374,7 +7374,7 @@
         <v>229.7065938790994</v>
       </c>
       <c r="V40" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="W40" t="n">
         <v>142.72</v>
@@ -7417,25 +7417,25 @@
         <v>142.72</v>
       </c>
       <c r="J41" t="n">
-        <v>534.0291130376557</v>
+        <v>860.2726437330556</v>
       </c>
       <c r="K41" t="n">
-        <v>1243.735479385524</v>
+        <v>1569.979010080924</v>
       </c>
       <c r="L41" t="n">
-        <v>2150.764973955147</v>
+        <v>2477.008504650546</v>
       </c>
       <c r="M41" t="n">
-        <v>2661.613802684082</v>
+        <v>3225.524931306456</v>
       </c>
       <c r="N41" t="n">
-        <v>3960.705181423565</v>
+        <v>4524.61631004594</v>
       </c>
       <c r="O41" t="n">
-        <v>5561.396317412467</v>
+        <v>5477.658854067896</v>
       </c>
       <c r="P41" t="n">
-        <v>6697.400904947333</v>
+        <v>6891.999907339051</v>
       </c>
       <c r="Q41" t="n">
         <v>7136</v>
@@ -7472,25 +7472,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1391.848424445072</v>
+        <v>1875.051363217714</v>
       </c>
       <c r="C42" t="n">
-        <v>1391.848424445072</v>
+        <v>1510.303976909108</v>
       </c>
       <c r="D42" t="n">
-        <v>1391.848424445072</v>
+        <v>1158.85176792153</v>
       </c>
       <c r="E42" t="n">
-        <v>1045.714992907787</v>
+        <v>812.7183363842444</v>
       </c>
       <c r="F42" t="n">
-        <v>702.6480814553856</v>
+        <v>469.6514249318435</v>
       </c>
       <c r="G42" t="n">
-        <v>605.0488225531531</v>
+        <v>142.72</v>
       </c>
       <c r="H42" t="n">
-        <v>289.7917181556082</v>
+        <v>142.72</v>
       </c>
       <c r="I42" t="n">
         <v>142.72</v>
@@ -7520,28 +7520,28 @@
         <v>4300.369696020461</v>
       </c>
       <c r="R42" t="n">
-        <v>3877.853327255624</v>
+        <v>4300.369696020461</v>
       </c>
       <c r="S42" t="n">
-        <v>3445.553591735139</v>
+        <v>4300.369696020461</v>
       </c>
       <c r="T42" t="n">
-        <v>3044.559365624544</v>
+        <v>3899.375469909866</v>
       </c>
       <c r="U42" t="n">
-        <v>3044.559365624544</v>
+        <v>3509.719399631218</v>
       </c>
       <c r="V42" t="n">
-        <v>3044.559365624544</v>
+        <v>3091.021756003419</v>
       </c>
       <c r="W42" t="n">
-        <v>2607.818817230778</v>
+        <v>3091.021756003419</v>
       </c>
       <c r="X42" t="n">
-        <v>2183.715040013215</v>
+        <v>2666.917978785856</v>
       </c>
       <c r="Y42" t="n">
-        <v>1780.289390754493</v>
+        <v>2263.492329527135</v>
       </c>
     </row>
     <row r="43">
@@ -7608,7 +7608,7 @@
         <v>229.7065938790994</v>
       </c>
       <c r="U43" t="n">
-        <v>142.72</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="V43" t="n">
         <v>142.72</v>
@@ -7657,22 +7657,22 @@
         <v>860.2726437330556</v>
       </c>
       <c r="K44" t="n">
-        <v>2058.933492682376</v>
+        <v>1569.979010080924</v>
       </c>
       <c r="L44" t="n">
-        <v>3572.554259232019</v>
+        <v>2477.008504650546</v>
       </c>
       <c r="M44" t="n">
-        <v>4083.403087960954</v>
+        <v>3662.807001082612</v>
       </c>
       <c r="N44" t="n">
-        <v>4882.77039701827</v>
+        <v>4276.027320857375</v>
       </c>
       <c r="O44" t="n">
-        <v>5835.812941040226</v>
+        <v>5420.718390895066</v>
       </c>
       <c r="P44" t="n">
-        <v>6697.400904947333</v>
+        <v>6282.306354802173</v>
       </c>
       <c r="Q44" t="n">
         <v>7136</v>
@@ -7709,22 +7709,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1972.632799462261</v>
+        <v>1374.145006927869</v>
       </c>
       <c r="C45" t="n">
-        <v>1972.632799462261</v>
+        <v>1009.397620619263</v>
       </c>
       <c r="D45" t="n">
-        <v>1621.180590474683</v>
+        <v>657.9454116316849</v>
       </c>
       <c r="E45" t="n">
-        <v>1275.047158937397</v>
+        <v>632.8586296080091</v>
       </c>
       <c r="F45" t="n">
-        <v>931.9802474849965</v>
+        <v>289.7917181556082</v>
       </c>
       <c r="G45" t="n">
-        <v>605.0488225531531</v>
+        <v>289.7917181556082</v>
       </c>
       <c r="H45" t="n">
         <v>289.7917181556082</v>
@@ -7757,28 +7757,28 @@
         <v>4300.369696020461</v>
       </c>
       <c r="R45" t="n">
-        <v>4300.369696020461</v>
+        <v>3877.853327255624</v>
       </c>
       <c r="S45" t="n">
-        <v>4300.369696020461</v>
+        <v>3445.553591735139</v>
       </c>
       <c r="T45" t="n">
-        <v>4300.369696020461</v>
+        <v>3445.553591735139</v>
       </c>
       <c r="U45" t="n">
-        <v>3896.254860616265</v>
+        <v>3445.553591735139</v>
       </c>
       <c r="V45" t="n">
-        <v>3477.557216988467</v>
+        <v>3026.855948107341</v>
       </c>
       <c r="W45" t="n">
-        <v>3188.603192247967</v>
+        <v>2590.115399713574</v>
       </c>
       <c r="X45" t="n">
-        <v>2764.499415030404</v>
+        <v>2166.011622496011</v>
       </c>
       <c r="Y45" t="n">
-        <v>2361.073765771682</v>
+        <v>1762.58597323729</v>
       </c>
     </row>
     <row r="46">
@@ -7848,10 +7848,10 @@
         <v>229.7065938790994</v>
       </c>
       <c r="V46" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="W46" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="X46" t="n">
         <v>142.72</v>
@@ -7984,7 +7984,7 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J2" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>716.8751175230994</v>
@@ -8221,7 +8221,7 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J5" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>716.8751175230994</v>
@@ -8473,7 +8473,7 @@
         <v>1096.663422488788</v>
       </c>
       <c r="O8" t="n">
-        <v>1032.917105959907</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>870.5779326741233</v>
@@ -9649,7 +9649,7 @@
         <v>716.8751175230994</v>
       </c>
       <c r="L23" t="n">
-        <v>916.1914086561842</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>1060.271045550332</v>
@@ -10606,7 +10606,7 @@
         <v>1096.663422488788</v>
       </c>
       <c r="O35" t="n">
-        <v>1032.917105959907</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>870.5779326741233</v>
@@ -10828,7 +10828,7 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K38" t="n">
         <v>716.8751175230994</v>
@@ -10843,7 +10843,7 @@
         <v>1096.663422488788</v>
       </c>
       <c r="O38" t="n">
-        <v>1032.917105959907</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>870.5779326741233</v>
@@ -11086,7 +11086,7 @@
         <v>870.5779326741233</v>
       </c>
       <c r="Q41" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>294.54111633436</v>
@@ -23345,7 +23345,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>262.7092371690967</v>
+        <v>251.151659840141</v>
       </c>
       <c r="D12" t="n">
         <v>347.9376868977026</v>
@@ -23357,10 +23357,10 @@
         <v>339.6362423378769</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>323.662110682525</v>
       </c>
       <c r="H12" t="n">
-        <v>312.1045333535693</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>145.6010009740521</v>
@@ -23478,7 +23478,7 @@
         <v>202.5829988408516</v>
       </c>
       <c r="U13" t="n">
-        <v>150.8633925383038</v>
+        <v>64.74666459799546</v>
       </c>
       <c r="V13" t="n">
         <v>199.1703102162162</v>
@@ -23487,7 +23487,7 @@
         <v>226.3728098387097</v>
       </c>
       <c r="X13" t="n">
-        <v>161.3269174897992</v>
+        <v>247.4436454301076</v>
       </c>
       <c r="Y13" t="n">
         <v>287.4653528494624</v>
@@ -23582,10 +23582,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>226.5473686719977</v>
       </c>
       <c r="D15" t="n">
-        <v>153.9074897890534</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>342.6720972219126</v>
@@ -23594,7 +23594,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>323.662110682525</v>
       </c>
       <c r="H15" t="n">
         <v>312.1045333535693</v>
@@ -23633,10 +23633,10 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>396.9842838494889</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>400.0736870501537</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23648,7 +23648,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>399.3913927661343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23667,7 +23667,7 @@
         <v>285.5362180555555</v>
       </c>
       <c r="E16" t="n">
-        <v>194.8641768966482</v>
+        <v>280.9809048369565</v>
       </c>
       <c r="F16" t="n">
         <v>274.3828559677419</v>
@@ -23718,7 +23718,7 @@
         <v>150.8633925383038</v>
       </c>
       <c r="V16" t="n">
-        <v>199.1703102162162</v>
+        <v>113.0535822759078</v>
       </c>
       <c r="W16" t="n">
         <v>226.3728098387097</v>
@@ -23819,22 +23819,22 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>262.7092371690967</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>347.9376868977026</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>342.6720972219126</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>339.6362423378769</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>312.1045333535693</v>
       </c>
       <c r="I18" t="n">
         <v>145.6010009740521</v>
@@ -23864,13 +23864,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>418.2912050771884</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>427.97673816528</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>326.4187108278615</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23879,7 +23879,7 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>432.3731429098285</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -23916,7 +23916,7 @@
         <v>213.286332108497</v>
       </c>
       <c r="I19" t="n">
-        <v>124.2574857538132</v>
+        <v>38.14075781350486</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>150.8633925383038</v>
       </c>
       <c r="V19" t="n">
-        <v>113.0535822759078</v>
+        <v>199.1703102162162</v>
       </c>
       <c r="W19" t="n">
         <v>226.3728098387097</v>
@@ -24065,16 +24065,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>49.70303653463185</v>
       </c>
       <c r="G21" t="n">
-        <v>323.662110682525</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>312.1045333535693</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>145.6010009740521</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24104,10 +24104,10 @@
         <v>418.2912050771884</v>
       </c>
       <c r="S21" t="n">
-        <v>264.2298059310991</v>
+        <v>427.97673816528</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>396.9842838494889</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24116,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>432.3731429098285</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -24147,10 +24147,10 @@
         <v>274.3828559677419</v>
       </c>
       <c r="G22" t="n">
-        <v>157.1855014050628</v>
+        <v>243.3022293453712</v>
       </c>
       <c r="H22" t="n">
-        <v>213.286332108497</v>
+        <v>127.1696041681886</v>
       </c>
       <c r="I22" t="n">
         <v>124.2574857538132</v>
@@ -24293,22 +24293,22 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>174.7400834725126</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>347.9376868977026</v>
       </c>
       <c r="E24" t="n">
-        <v>230.2655178400527</v>
+        <v>342.6720972219126</v>
       </c>
       <c r="F24" t="n">
         <v>339.6362423378769</v>
       </c>
       <c r="G24" t="n">
-        <v>323.662110682525</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>312.1045333535693</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>145.6010009740521</v>
@@ -24347,7 +24347,7 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>400.0736870501537</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24359,7 +24359,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>399.3913927661343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24390,7 +24390,7 @@
         <v>213.286332108497</v>
       </c>
       <c r="I25" t="n">
-        <v>38.14075781350486</v>
+        <v>124.2574857538132</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>150.8633925383038</v>
       </c>
       <c r="V25" t="n">
-        <v>199.1703102162162</v>
+        <v>113.0535822759078</v>
       </c>
       <c r="W25" t="n">
         <v>226.3728098387097</v>
@@ -24533,19 +24533,19 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>347.9376868977026</v>
       </c>
       <c r="E27" t="n">
-        <v>230.2655178400527</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>339.6362423378769</v>
       </c>
       <c r="G27" t="n">
-        <v>323.662110682525</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>312.1045333535693</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>145.6010009740521</v>
@@ -24575,7 +24575,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>418.2912050771884</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24593,7 +24593,7 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>99.80326990125604</v>
       </c>
       <c r="Y27" t="n">
         <v>399.3913927661343</v>
@@ -24624,10 +24624,10 @@
         <v>243.3022293453712</v>
       </c>
       <c r="H28" t="n">
-        <v>213.286332108497</v>
+        <v>127.1696041681887</v>
       </c>
       <c r="I28" t="n">
-        <v>38.14075781350489</v>
+        <v>124.2574857538132</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24767,13 +24767,13 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>251.1516598401409</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>347.9376868977026</v>
       </c>
       <c r="E30" t="n">
-        <v>229.5832235560335</v>
+        <v>342.6720972219126</v>
       </c>
       <c r="F30" t="n">
         <v>339.6362423378769</v>
@@ -24782,7 +24782,7 @@
         <v>323.662110682525</v>
       </c>
       <c r="H30" t="n">
-        <v>312.1045333535693</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>145.6010009740521</v>
@@ -24821,7 +24821,7 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>400.0736870501537</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24900,10 +24900,10 @@
         <v>202.5829988408516</v>
       </c>
       <c r="U31" t="n">
-        <v>64.74666459799549</v>
+        <v>150.8633925383038</v>
       </c>
       <c r="V31" t="n">
-        <v>199.1703102162162</v>
+        <v>113.0535822759079</v>
       </c>
       <c r="W31" t="n">
         <v>226.3728098387097</v>
@@ -25004,13 +25004,13 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>251.151659840141</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>347.9376868977026</v>
       </c>
       <c r="E33" t="n">
-        <v>230.2655178400527</v>
+        <v>342.6720972219126</v>
       </c>
       <c r="F33" t="n">
         <v>339.6362423378769</v>
@@ -25019,7 +25019,7 @@
         <v>323.662110682525</v>
       </c>
       <c r="H33" t="n">
-        <v>312.1045333535693</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>145.6010009740521</v>
@@ -25070,7 +25070,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>399.3913927661343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25098,7 +25098,7 @@
         <v>243.3022293453712</v>
       </c>
       <c r="H34" t="n">
-        <v>127.1696041681886</v>
+        <v>213.286332108497</v>
       </c>
       <c r="I34" t="n">
         <v>124.2574857538132</v>
@@ -25140,7 +25140,7 @@
         <v>150.8633925383038</v>
       </c>
       <c r="V34" t="n">
-        <v>199.1703102162162</v>
+        <v>113.0535822759078</v>
       </c>
       <c r="W34" t="n">
         <v>226.3728098387097</v>
@@ -25244,19 +25244,19 @@
         <v>361.0999124455193</v>
       </c>
       <c r="D36" t="n">
-        <v>347.9376868977026</v>
+        <v>14.08431208456619</v>
       </c>
       <c r="E36" t="n">
-        <v>342.6720972219126</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>339.6362423378769</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>323.662110682525</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>312.1045333535693</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25295,13 +25295,13 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>400.0736870501537</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>359.3148590511988</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25380,13 +25380,13 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W37" t="n">
-        <v>226.3728098387097</v>
+        <v>140.2560818984013</v>
       </c>
       <c r="X37" t="n">
         <v>247.4436454301076</v>
       </c>
       <c r="Y37" t="n">
-        <v>201.348624909154</v>
+        <v>287.4653528494624</v>
       </c>
     </row>
     <row r="38">
@@ -25475,7 +25475,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>384.5565566463266</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -25484,19 +25484,19 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>342.6720972219126</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>339.6362423378769</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>323.662110682525</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>312.1045333535693</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>145.6010009740521</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25523,22 +25523,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>418.2912050771884</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>115.3662062707131</v>
+        <v>286.9848133842746</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>400.0736870501537</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>432.3731429098285</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>150.8633925383038</v>
       </c>
       <c r="V40" t="n">
-        <v>199.1703102162162</v>
+        <v>113.0535822759078</v>
       </c>
       <c r="W40" t="n">
-        <v>140.2560818984013</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X40" t="n">
         <v>247.4436454301076</v>
@@ -25715,10 +25715,10 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>361.0999124455193</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>347.9376868977026</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -25727,13 +25727,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>227.0388443693147</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>312.1045333535693</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>145.6010009740521</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25760,22 +25760,22 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>418.2912050771884</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>427.97673816528</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>400.0736870501537</v>
+        <v>14.31417747429197</v>
       </c>
       <c r="V42" t="n">
-        <v>414.5106671915202</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>432.3731429098285</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>202.5829988408516</v>
       </c>
       <c r="U43" t="n">
-        <v>64.74666459799546</v>
+        <v>150.8633925383038</v>
       </c>
       <c r="V43" t="n">
-        <v>199.1703102162162</v>
+        <v>113.0535822759078</v>
       </c>
       <c r="W43" t="n">
         <v>226.3728098387097</v>
@@ -25952,22 +25952,22 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>361.0999124455193</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>317.8361830184735</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>323.662110682525</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>312.1045333535693</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25997,22 +25997,22 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>418.2912050771884</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>427.97673816528</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>396.9842838494889</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>400.0736870501537</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>146.3086584167337</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -26088,13 +26088,13 @@
         <v>150.8633925383038</v>
       </c>
       <c r="V46" t="n">
-        <v>199.1703102162162</v>
+        <v>113.0535822759078</v>
       </c>
       <c r="W46" t="n">
         <v>226.3728098387097</v>
       </c>
       <c r="X46" t="n">
-        <v>161.3269174897992</v>
+        <v>247.4436454301076</v>
       </c>
       <c r="Y46" t="n">
         <v>287.4653528494624</v>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15961.27270175422</v>
+        <v>1353830.318357539</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>31922.54540350845</v>
+        <v>2707660.636715078</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>47883.81810526265</v>
+        <v>4061490.955072618</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>67184.90268414962</v>
+        <v>5169275.347392689</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>86485.9872630366</v>
+        <v>6277059.739712758</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>105787.0718419236</v>
+        <v>7384844.132032825</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>125088.1564208105</v>
+        <v>8492628.524352888</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>144389.2409996975</v>
+        <v>9600412.916672952</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>163690.3255785845</v>
+        <v>10708197.30899301</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>182991.4101574715</v>
+        <v>11815981.70131308</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>202292.4947363585</v>
+        <v>12923766.09363314</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>221593.5793152455</v>
+        <v>14031550.4859532</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>240894.6638941327</v>
+        <v>15139334.87827327</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>260195.7484730201</v>
+        <v>16247119.27059335</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>279496.8330519073</v>
+        <v>17354903.66291343</v>
       </c>
     </row>
   </sheetData>
@@ -26322,10 +26322,10 @@
         <v>850079.5022245019</v>
       </c>
       <c r="C2" t="n">
-        <v>850079.5022245019</v>
+        <v>850079.502224502</v>
       </c>
       <c r="D2" t="n">
-        <v>850079.502224502</v>
+        <v>850079.5022245022</v>
       </c>
       <c r="E2" t="n">
         <v>695585.5486660914</v>
@@ -26337,28 +26337,28 @@
         <v>695585.5486660913</v>
       </c>
       <c r="H2" t="n">
-        <v>695585.5486660913</v>
+        <v>695585.5486660909</v>
       </c>
       <c r="I2" t="n">
-        <v>695585.5486660913</v>
+        <v>695585.5486660915</v>
       </c>
       <c r="J2" t="n">
         <v>695585.5486660913</v>
       </c>
       <c r="K2" t="n">
-        <v>695585.5486660914</v>
+        <v>695585.5486660913</v>
       </c>
       <c r="L2" t="n">
+        <v>695585.5486660912</v>
+      </c>
+      <c r="M2" t="n">
         <v>695585.5486660913</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>695585.5486660913</v>
+      </c>
+      <c r="O2" t="n">
         <v>695585.5486660912</v>
-      </c>
-      <c r="N2" t="n">
-        <v>695585.5486660911</v>
-      </c>
-      <c r="O2" t="n">
-        <v>695585.5486660913</v>
       </c>
       <c r="P2" t="n">
         <v>695585.5486660912</v>
@@ -26435,13 +26435,13 @@
         <v>1113.692596006615</v>
       </c>
       <c r="F4" t="n">
-        <v>1113.692596006605</v>
+        <v>1113.692596006603</v>
       </c>
       <c r="G4" t="n">
+        <v>1113.692596006604</v>
+      </c>
+      <c r="H4" t="n">
         <v>1113.692596006615</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1113.692596006605</v>
       </c>
       <c r="I4" t="n">
         <v>1113.692596006615</v>
@@ -26456,13 +26456,13 @@
         <v>1113.692596006615</v>
       </c>
       <c r="M4" t="n">
-        <v>1113.692596006605</v>
+        <v>1113.692596006604</v>
       </c>
       <c r="N4" t="n">
         <v>1113.692596006615</v>
       </c>
       <c r="O4" t="n">
-        <v>1113.69259600661</v>
+        <v>1113.692596006625</v>
       </c>
       <c r="P4" t="n">
         <v>1113.692596006615</v>
@@ -26533,7 +26533,7 @@
         <v>555073.5545624947</v>
       </c>
       <c r="D6" t="n">
-        <v>555600.6680044089</v>
+        <v>555600.6680044091</v>
       </c>
       <c r="E6" t="n">
         <v>564945.8560700847</v>
@@ -26542,13 +26542,13 @@
         <v>564945.8560700847</v>
       </c>
       <c r="G6" t="n">
-        <v>564945.8560700846</v>
+        <v>564945.8560700847</v>
       </c>
       <c r="H6" t="n">
-        <v>564945.8560700847</v>
+        <v>564945.8560700843</v>
       </c>
       <c r="I6" t="n">
-        <v>564945.8560700846</v>
+        <v>564945.8560700848</v>
       </c>
       <c r="J6" t="n">
         <v>-63022.14392991527</v>
@@ -26557,16 +26557,16 @@
         <v>564945.8560700847</v>
       </c>
       <c r="L6" t="n">
+        <v>564945.8560700845</v>
+      </c>
+      <c r="M6" t="n">
+        <v>564945.8560700847</v>
+      </c>
+      <c r="N6" t="n">
         <v>564945.8560700846</v>
       </c>
-      <c r="M6" t="n">
-        <v>564945.8560700846</v>
-      </c>
-      <c r="N6" t="n">
-        <v>564945.8560700844</v>
-      </c>
       <c r="O6" t="n">
-        <v>564945.8560700847</v>
+        <v>564945.8560700845</v>
       </c>
       <c r="P6" t="n">
         <v>564945.8560700845</v>
@@ -27587,25 +27587,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>384.5565566463266</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>361.0999124455193</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>347.9376868977026</v>
       </c>
       <c r="E3" t="n">
-        <v>342.6720972219126</v>
+        <v>112.0742482244752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>323.662110682525</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>312.1045333535693</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>145.6010009740521</v>
@@ -27647,16 +27647,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>226.6210557221515</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>399.3913927661343</v>
       </c>
     </row>
     <row r="4">
@@ -27684,19 +27684,19 @@
         <v>243.3022293453712</v>
       </c>
       <c r="H4" t="n">
-        <v>213.286332108497</v>
+        <v>400</v>
       </c>
       <c r="I4" t="n">
         <v>124.2574857538132</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>5.385227800831913</v>
       </c>
       <c r="K4" t="n">
         <v>86.17346579286669</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6127396470317</v>
+        <v>400</v>
       </c>
       <c r="M4" t="n">
         <v>247.6210768183003</v>
@@ -27726,16 +27726,16 @@
         <v>150.8633925383038</v>
       </c>
       <c r="V4" t="n">
-        <v>400</v>
+        <v>199.1703102162162</v>
       </c>
       <c r="W4" t="n">
-        <v>400</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X4" t="n">
         <v>247.4436454301076</v>
       </c>
       <c r="Y4" t="n">
-        <v>340.4946289496914</v>
+        <v>287.4653528494624</v>
       </c>
     </row>
     <row r="5">
@@ -27830,13 +27830,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>347.9376868977026</v>
+        <v>286.9848133842743</v>
       </c>
       <c r="E6" t="n">
         <v>342.6720972219126</v>
       </c>
       <c r="F6" t="n">
-        <v>278.6833688244485</v>
+        <v>339.6362423378769</v>
       </c>
       <c r="G6" t="n">
         <v>323.662110682525</v>
@@ -27915,7 +27915,7 @@
         <v>280.9809048369565</v>
       </c>
       <c r="F7" t="n">
-        <v>400</v>
+        <v>274.3828559677419</v>
       </c>
       <c r="G7" t="n">
         <v>243.3022293453712</v>
@@ -27927,19 +27927,19 @@
         <v>124.2574857538132</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>96.76501668363494</v>
       </c>
       <c r="K7" t="n">
         <v>86.17346579286669</v>
       </c>
       <c r="L7" t="n">
-        <v>164.6127396470317</v>
+        <v>400</v>
       </c>
       <c r="M7" t="n">
         <v>247.6210768183003</v>
       </c>
       <c r="N7" t="n">
-        <v>304.6661209913</v>
+        <v>400</v>
       </c>
       <c r="O7" t="n">
         <v>394.2721724583043</v>
@@ -27957,10 +27957,10 @@
         <v>332.021383501614</v>
       </c>
       <c r="T7" t="n">
-        <v>255.3154033922006</v>
+        <v>202.5829988408516</v>
       </c>
       <c r="U7" t="n">
-        <v>400</v>
+        <v>150.8633925383038</v>
       </c>
       <c r="V7" t="n">
         <v>199.1703102162162</v>
@@ -28061,28 +28061,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>384.5565566463266</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>361.0999124455193</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>342.6720972219126</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>323.662110682525</v>
       </c>
       <c r="H9" t="n">
         <v>312.1045333535693</v>
       </c>
       <c r="I9" t="n">
-        <v>145.6010009740521</v>
+        <v>26.56558760435746</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28112,7 +28112,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>92.95526362658893</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -28121,13 +28121,13 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28146,7 +28146,7 @@
         <v>272.7252466480447</v>
       </c>
       <c r="D10" t="n">
-        <v>365.1004665973527</v>
+        <v>285.5362180555555</v>
       </c>
       <c r="E10" t="n">
         <v>280.9809048369565</v>
@@ -28161,16 +28161,16 @@
         <v>213.286332108497</v>
       </c>
       <c r="I10" t="n">
-        <v>124.2574857538132</v>
+        <v>400</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>151.7436417991164</v>
       </c>
       <c r="K10" t="n">
         <v>86.17346579286669</v>
       </c>
       <c r="L10" t="n">
-        <v>400</v>
+        <v>164.6127396470317</v>
       </c>
       <c r="M10" t="n">
         <v>247.6210768183003</v>
@@ -28209,7 +28209,7 @@
         <v>247.4436454301076</v>
       </c>
       <c r="Y10" t="n">
-        <v>400</v>
+        <v>287.4653528494624</v>
       </c>
     </row>
     <row r="11">
@@ -31180,28 +31180,28 @@
         <v>149.6876149483989</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>329.5389198943433</v>
       </c>
       <c r="K2" t="n">
-        <v>493.8934167691431</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>681.7673411142738</v>
       </c>
       <c r="N2" t="n">
-        <v>692.7990494593133</v>
+        <v>65.55265239593905</v>
       </c>
       <c r="O2" t="n">
-        <v>437.4855888820723</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>558.3364539030787</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>419.2874243890514</v>
       </c>
       <c r="R2" t="n">
         <v>243.8963657999445</v>
@@ -31420,25 +31420,25 @@
         <v>329.5389198943433</v>
       </c>
       <c r="K5" t="n">
-        <v>493.8934167691431</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>612.7184565454758</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>651.4659504769833</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>654.1904969363086</v>
       </c>
       <c r="P5" t="n">
-        <v>188.0272619015672</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>419.2874243890514</v>
       </c>
       <c r="R5" t="n">
         <v>243.8963657999445</v>
@@ -31660,22 +31660,22 @@
         <v>493.8934167691431</v>
       </c>
       <c r="L8" t="n">
-        <v>107.9466689877308</v>
+        <v>78.41756196731785</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>681.7673411142738</v>
       </c>
       <c r="N8" t="n">
-        <v>692.7990494593133</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>654.1904969363086</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>419.2874243890514</v>
       </c>
       <c r="R8" t="n">
         <v>243.8963657999445</v>
@@ -31891,28 +31891,28 @@
         <v>149.6876149483989</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>329.5389198943433</v>
       </c>
       <c r="K11" t="n">
-        <v>493.8934167691431</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>182.5526613678229</v>
       </c>
       <c r="N11" t="n">
-        <v>571.9481844383083</v>
+        <v>692.7990494593133</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>558.3364539030787</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>419.2874243890514</v>
       </c>
       <c r="R11" t="n">
         <v>243.8963657999445</v>
@@ -32128,16 +32128,16 @@
         <v>149.6876149483989</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>329.5389198943433</v>
       </c>
       <c r="K14" t="n">
         <v>493.8934167691431</v>
       </c>
       <c r="L14" t="n">
-        <v>612.7184565454758</v>
+        <v>381.458294057993</v>
       </c>
       <c r="M14" t="n">
-        <v>517.566181795912</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -32149,7 +32149,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>419.2874243890514</v>
       </c>
       <c r="R14" t="n">
         <v>243.8963657999445</v>
@@ -32368,7 +32368,7 @@
         <v>329.5389198943433</v>
       </c>
       <c r="K17" t="n">
-        <v>221.1612138908276</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -32383,7 +32383,7 @@
         <v>654.1904969363086</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>221.1612138908266</v>
       </c>
       <c r="Q17" t="n">
         <v>419.2874243890514</v>
@@ -32602,16 +32602,16 @@
         <v>149.6876149483989</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>329.5389198943433</v>
       </c>
       <c r="K20" t="n">
         <v>493.8934167691431</v>
       </c>
       <c r="L20" t="n">
-        <v>612.7184565454758</v>
+        <v>381.458294057993</v>
       </c>
       <c r="M20" t="n">
-        <v>517.566181795912</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -32623,7 +32623,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>419.2874243890514</v>
       </c>
       <c r="R20" t="n">
         <v>243.8963657999445</v>
@@ -32851,13 +32851,13 @@
         <v>681.7673411142738</v>
       </c>
       <c r="N23" t="n">
-        <v>193.5843697128627</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>551.439324465968</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>558.3364539030787</v>
       </c>
       <c r="Q23" t="n">
         <v>419.2874243890514</v>
@@ -33079,25 +33079,25 @@
         <v>329.5389198943433</v>
       </c>
       <c r="K26" t="n">
-        <v>493.8934167691431</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>317.0152569240563</v>
       </c>
       <c r="M26" t="n">
-        <v>107.9466689877291</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>692.7990494593133</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>558.3364539030787</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>419.2874243890514</v>
       </c>
       <c r="R26" t="n">
         <v>243.8963657999445</v>
@@ -33313,25 +33313,25 @@
         <v>149.6876149483989</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>329.5389198943433</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>193.5843697128612</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>681.7673411142738</v>
       </c>
       <c r="N29" t="n">
-        <v>646.5541768183994</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>558.3364539030787</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>419.2874243890514</v>
@@ -33556,13 +33556,13 @@
         <v>493.8934167691431</v>
       </c>
       <c r="L32" t="n">
-        <v>612.7184565454758</v>
+        <v>381.458294057993</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>188.0272619015685</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -33571,7 +33571,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>419.2874243890514</v>
       </c>
       <c r="R32" t="n">
         <v>243.8963657999445</v>
@@ -33787,22 +33787,22 @@
         <v>149.6876149483989</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>329.5389198943433</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>2.942816488342487</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>646.5541768184003</v>
+        <v>692.7990494593133</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>654.1904969363086</v>
       </c>
       <c r="P35" t="n">
         <v>558.3364539030787</v>
@@ -34027,25 +34027,25 @@
         <v>329.5389198943433</v>
       </c>
       <c r="K38" t="n">
-        <v>493.8934167691431</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>612.7184565454758</v>
+        <v>2.942816488342487</v>
       </c>
       <c r="M38" t="n">
-        <v>618.3319984877256</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>692.7990494593133</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>654.1904969363086</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>558.3364539030787</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>419.2874243890514</v>
       </c>
       <c r="R38" t="n">
         <v>243.8963657999445</v>
@@ -34261,7 +34261,7 @@
         <v>149.6876149483989</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>329.5389198943433</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -34270,19 +34270,19 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>240.0682807343181</v>
       </c>
       <c r="N41" t="n">
         <v>692.7990494593133</v>
       </c>
       <c r="O41" t="n">
-        <v>654.1904969363086</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>277.1885087149077</v>
+        <v>558.3364539030787</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>419.2874243890514</v>
       </c>
       <c r="R41" t="n">
         <v>243.8963657999445</v>
@@ -34501,25 +34501,25 @@
         <v>329.5389198943433</v>
       </c>
       <c r="K44" t="n">
-        <v>493.8934167691431</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>612.7184565454758</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>681.7673411142738</v>
       </c>
       <c r="N44" t="n">
-        <v>188.0272619015685</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>193.5843697128623</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>419.2874243890514</v>
       </c>
       <c r="R44" t="n">
         <v>243.8963657999445</v>
@@ -34828,28 +34828,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>395.2617303410664</v>
+        <v>294.4959136492529</v>
       </c>
       <c r="K2" t="n">
-        <v>1210.768534292243</v>
+        <v>716.8751175230996</v>
       </c>
       <c r="L2" t="n">
-        <v>916.1914086561844</v>
+        <v>916.1914086561842</v>
       </c>
       <c r="M2" t="n">
-        <v>516.0089179080152</v>
+        <v>1197.776259022289</v>
       </c>
       <c r="N2" t="n">
-        <v>1312.213513878266</v>
+        <v>684.9671168148918</v>
       </c>
       <c r="O2" t="n">
-        <v>1400.154825267887</v>
+        <v>962.6692363858147</v>
       </c>
       <c r="P2" t="n">
-        <v>870.2908726334418</v>
+        <v>1428.627326536521</v>
       </c>
       <c r="Q2" t="n">
-        <v>443.0293889420883</v>
+        <v>862.3168133311397</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34980,19 +34980,19 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>186.713667891503</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.86524634252459</v>
+        <v>93.2504741433565</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>235.3872603529683</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -35022,16 +35022,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>200.8296897837838</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>173.6271901612903</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.0292761002291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -35065,28 +35065,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>724.8006502354096</v>
+        <v>294.4959136492529</v>
       </c>
       <c r="K5" t="n">
-        <v>1210.768534292243</v>
+        <v>716.8751175230996</v>
       </c>
       <c r="L5" t="n">
-        <v>1528.90986520166</v>
+        <v>916.1914086561842</v>
       </c>
       <c r="M5" t="n">
-        <v>516.0089179080152</v>
+        <v>1167.474868384998</v>
       </c>
       <c r="N5" t="n">
         <v>619.4144644189528</v>
       </c>
       <c r="O5" t="n">
-        <v>962.6692363858147</v>
+        <v>1616.859733322123</v>
       </c>
       <c r="P5" t="n">
-        <v>1058.318134535009</v>
+        <v>870.2908726334418</v>
       </c>
       <c r="Q5" t="n">
-        <v>443.0293889420883</v>
+        <v>862.3168133311397</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35211,7 +35211,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>125.6171440322581</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -35223,19 +35223,19 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.86524634252459</v>
+        <v>184.6302630261595</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>235.3872603529683</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>95.33387900869997</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -35253,10 +35253,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>52.73240455134893</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>249.1366074616962</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -35308,22 +35308,22 @@
         <v>1210.768534292243</v>
       </c>
       <c r="L8" t="n">
-        <v>1024.138077643915</v>
+        <v>994.608970623502</v>
       </c>
       <c r="M8" t="n">
-        <v>516.0089179080152</v>
+        <v>1197.776259022289</v>
       </c>
       <c r="N8" t="n">
-        <v>1312.213513878266</v>
+        <v>619.4144644189528</v>
       </c>
       <c r="O8" t="n">
-        <v>962.6692363858147</v>
+        <v>583.9426273622162</v>
       </c>
       <c r="P8" t="n">
         <v>870.2908726334418</v>
       </c>
       <c r="Q8" t="n">
-        <v>443.0293889420883</v>
+        <v>862.3168133311397</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35442,7 +35442,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>79.56424854179724</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -35457,16 +35457,16 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>275.7425142461868</v>
       </c>
       <c r="J10" t="n">
-        <v>87.86524634252459</v>
+        <v>239.608888141641</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>235.3872603529683</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -35505,7 +35505,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>112.5346471505376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -35539,28 +35539,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>395.2617303410664</v>
+        <v>724.8006502354096</v>
       </c>
       <c r="K11" t="n">
-        <v>1210.768534292242</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L11" t="n">
         <v>916.1914086561842</v>
       </c>
       <c r="M11" t="n">
-        <v>516.0089179080152</v>
+        <v>698.5615792758381</v>
       </c>
       <c r="N11" t="n">
-        <v>1191.362648857261</v>
+        <v>1312.213513878266</v>
       </c>
       <c r="O11" t="n">
         <v>962.6692363858147</v>
       </c>
       <c r="P11" t="n">
-        <v>1428.627326536521</v>
+        <v>870.2908726334418</v>
       </c>
       <c r="Q11" t="n">
-        <v>443.0293889420883</v>
+        <v>862.3168133311397</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35776,16 +35776,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>395.2617303410664</v>
+        <v>724.8006502354096</v>
       </c>
       <c r="K14" t="n">
-        <v>1210.768534292242</v>
+        <v>1210.768534292243</v>
       </c>
       <c r="L14" t="n">
-        <v>1528.90986520166</v>
+        <v>1297.649702714177</v>
       </c>
       <c r="M14" t="n">
-        <v>1033.575099703927</v>
+        <v>516.0089179080152</v>
       </c>
       <c r="N14" t="n">
         <v>619.4144644189528</v>
@@ -35797,7 +35797,7 @@
         <v>870.2908726334418</v>
       </c>
       <c r="Q14" t="n">
-        <v>443.0293889420883</v>
+        <v>862.3168133311397</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -36016,7 +36016,7 @@
         <v>724.8006502354096</v>
       </c>
       <c r="K17" t="n">
-        <v>938.0363314139271</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L17" t="n">
         <v>916.1914086561842</v>
@@ -36031,7 +36031,7 @@
         <v>1616.859733322123</v>
       </c>
       <c r="P17" t="n">
-        <v>870.2908726334418</v>
+        <v>1091.452086524268</v>
       </c>
       <c r="Q17" t="n">
         <v>862.3168133311397</v>
@@ -36250,16 +36250,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>395.2617303410664</v>
+        <v>724.8006502354096</v>
       </c>
       <c r="K20" t="n">
-        <v>1210.768534292242</v>
+        <v>1210.768534292243</v>
       </c>
       <c r="L20" t="n">
-        <v>1528.90986520166</v>
+        <v>1297.649702714177</v>
       </c>
       <c r="M20" t="n">
-        <v>1033.575099703927</v>
+        <v>516.0089179080152</v>
       </c>
       <c r="N20" t="n">
         <v>619.4144644189528</v>
@@ -36271,7 +36271,7 @@
         <v>870.2908726334418</v>
       </c>
       <c r="Q20" t="n">
-        <v>443.0293889420883</v>
+        <v>862.3168133311397</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36493,19 +36493,19 @@
         <v>716.8751175230994</v>
       </c>
       <c r="L23" t="n">
-        <v>916.1914086561842</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>1197.776259022289</v>
       </c>
       <c r="N23" t="n">
-        <v>812.9988341318154</v>
+        <v>619.4144644189528</v>
       </c>
       <c r="O23" t="n">
-        <v>962.6692363858147</v>
+        <v>1514.108560851783</v>
       </c>
       <c r="P23" t="n">
-        <v>870.2908726334418</v>
+        <v>1428.627326536521</v>
       </c>
       <c r="Q23" t="n">
         <v>862.3168133311397</v>
@@ -36727,25 +36727,25 @@
         <v>724.8006502354096</v>
       </c>
       <c r="K26" t="n">
-        <v>1210.768534292243</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L26" t="n">
-        <v>916.1914086561842</v>
+        <v>1233.20666558024</v>
       </c>
       <c r="M26" t="n">
-        <v>623.9555868957443</v>
+        <v>516.0089179080152</v>
       </c>
       <c r="N26" t="n">
-        <v>1312.213513878266</v>
+        <v>619.4144644189528</v>
       </c>
       <c r="O26" t="n">
         <v>962.6692363858147</v>
       </c>
       <c r="P26" t="n">
-        <v>870.2908726334418</v>
+        <v>1428.627326536521</v>
       </c>
       <c r="Q26" t="n">
-        <v>443.0293889420883</v>
+        <v>862.3168133311397</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36961,25 +36961,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>395.2617303410664</v>
+        <v>724.8006502354096</v>
       </c>
       <c r="K29" t="n">
         <v>716.8751175230994</v>
       </c>
       <c r="L29" t="n">
-        <v>916.1914086561844</v>
+        <v>1109.775778369045</v>
       </c>
       <c r="M29" t="n">
-        <v>516.0089179080152</v>
+        <v>1197.776259022289</v>
       </c>
       <c r="N29" t="n">
-        <v>1265.968641237352</v>
+        <v>619.4144644189528</v>
       </c>
       <c r="O29" t="n">
         <v>962.6692363858147</v>
       </c>
       <c r="P29" t="n">
-        <v>1428.627326536521</v>
+        <v>870.2908726334418</v>
       </c>
       <c r="Q29" t="n">
         <v>862.3168133311397</v>
@@ -37204,13 +37204,13 @@
         <v>1210.768534292243</v>
       </c>
       <c r="L32" t="n">
-        <v>1528.90986520166</v>
+        <v>1297.649702714177</v>
       </c>
       <c r="M32" t="n">
         <v>516.0089179080152</v>
       </c>
       <c r="N32" t="n">
-        <v>807.4417263205213</v>
+        <v>619.4144644189528</v>
       </c>
       <c r="O32" t="n">
         <v>962.6692363858147</v>
@@ -37219,7 +37219,7 @@
         <v>870.2908726334418</v>
       </c>
       <c r="Q32" t="n">
-        <v>443.0293889420883</v>
+        <v>862.3168133311397</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37435,22 +37435,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>395.2617303410664</v>
+        <v>724.8006502354096</v>
       </c>
       <c r="K35" t="n">
         <v>716.8751175230994</v>
       </c>
       <c r="L35" t="n">
-        <v>916.1914086561844</v>
+        <v>919.1342251445267</v>
       </c>
       <c r="M35" t="n">
         <v>516.0089179080152</v>
       </c>
       <c r="N35" t="n">
-        <v>1265.968641237353</v>
+        <v>1312.213513878266</v>
       </c>
       <c r="O35" t="n">
-        <v>962.6692363858147</v>
+        <v>583.9426273622162</v>
       </c>
       <c r="P35" t="n">
         <v>1428.627326536521</v>
@@ -37672,28 +37672,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>294.4959136492529</v>
+        <v>724.8006502354096</v>
       </c>
       <c r="K38" t="n">
-        <v>1210.768534292243</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L38" t="n">
-        <v>1528.90986520166</v>
+        <v>919.1342251445267</v>
       </c>
       <c r="M38" t="n">
-        <v>1134.340916395741</v>
+        <v>516.0089179080152</v>
       </c>
       <c r="N38" t="n">
-        <v>619.4144644189528</v>
+        <v>1312.213513878266</v>
       </c>
       <c r="O38" t="n">
-        <v>962.6692363858147</v>
+        <v>583.9426273622162</v>
       </c>
       <c r="P38" t="n">
-        <v>870.2908726334418</v>
+        <v>1428.627326536521</v>
       </c>
       <c r="Q38" t="n">
-        <v>443.0293889420883</v>
+        <v>862.3168133311397</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37909,28 +37909,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>395.2617303410664</v>
+        <v>724.8006502354096</v>
       </c>
       <c r="K41" t="n">
         <v>716.8751175230994</v>
       </c>
       <c r="L41" t="n">
-        <v>916.1914086561844</v>
+        <v>916.1914086561842</v>
       </c>
       <c r="M41" t="n">
-        <v>516.0089179080152</v>
+        <v>756.0771986423333</v>
       </c>
       <c r="N41" t="n">
         <v>1312.213513878266</v>
       </c>
       <c r="O41" t="n">
-        <v>1616.859733322123</v>
+        <v>962.6692363858147</v>
       </c>
       <c r="P41" t="n">
-        <v>1147.47938134835</v>
+        <v>1428.627326536521</v>
       </c>
       <c r="Q41" t="n">
-        <v>443.0293889420883</v>
+        <v>246.464740061566</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -38149,25 +38149,25 @@
         <v>724.8006502354096</v>
       </c>
       <c r="K44" t="n">
-        <v>1210.768534292243</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L44" t="n">
-        <v>1528.90986520166</v>
+        <v>916.1914086561842</v>
       </c>
       <c r="M44" t="n">
-        <v>516.0089179080152</v>
+        <v>1197.776259022289</v>
       </c>
       <c r="N44" t="n">
-        <v>807.4417263205213</v>
+        <v>619.4144644189528</v>
       </c>
       <c r="O44" t="n">
-        <v>962.6692363858147</v>
+        <v>1156.253606098677</v>
       </c>
       <c r="P44" t="n">
         <v>870.2908726334418</v>
       </c>
       <c r="Q44" t="n">
-        <v>443.0293889420883</v>
+        <v>862.3168133311397</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
